--- a/百货接口压测结果对比1029.xlsx
+++ b/百货接口压测结果对比1029.xlsx
@@ -90,16 +90,40 @@
     <t>平均耗时较短</t>
   </si>
   <si>
-    <t>代码之前优化，采用批量访问redis,所有出现访问redis次远低于访问mysql;缓存中合</t>
+    <t>代码之前优化过，采用批量访问redis,所以出现访问redis次远低于访问mysql;</t>
   </si>
   <si>
     <t>总结</t>
   </si>
   <si>
     <r>
-      <t>1.mysql的访问量未体现出对当时性能的影响效果
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1.mysql的访问量未体现出对当时性能的影响效果
 2.redis的访问量较为明显影响到响应时间，从调用链中可以看到存在很多redis访问耗时在几十到上百毫秒;
-3.比对3结果，高并发的条件下，product-ms-app,car-ms-ec 使用redis 并没体现出提搞系统性能作用，反而被拖累了
+3.比对3结果，高并发的条件下，product-ms-app,car-ms-ec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用redis 并没体现出提搞系统性能作用，反而有被拖累嫌疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4.分析 product-ms-app,car-ms-ec 代码，存在循环并且耦合较强，</t>
     </r>
     <r>
@@ -142,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -163,6 +187,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,17 +195,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,15 +291,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,78 +332,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,187 +359,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +693,59 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,39 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -738,26 +794,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +814,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,8 +1005,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1505,8 +1547,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1583,10 +1625,10 @@
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1615,10 +1657,10 @@
       <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1647,10 +1689,10 @@
       <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1668,7 +1710,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="22"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13"/>
@@ -1680,7 +1722,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="23"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13"/>
@@ -1692,7 +1734,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="13"/>
@@ -1704,7 +1746,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" ht="32" customHeight="1" spans="1:10">
       <c r="A10" s="16"/>
@@ -1716,7 +1758,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4"/>
@@ -1728,7 +1770,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="25"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4"/>
@@ -1740,7 +1782,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
@@ -1752,7 +1794,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
@@ -1768,7 +1810,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4"/>
@@ -1780,7 +1822,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="25"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4"/>
@@ -1792,7 +1834,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4"/>
@@ -1804,7 +1846,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4"/>
@@ -1816,7 +1858,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4"/>
@@ -1828,7 +1870,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4"/>
@@ -1840,7 +1882,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
@@ -1852,7 +1894,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
